--- a/data/trans_dic/P39A4_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P39A4_2023-Estudios-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9043407315159551</v>
+        <v>0.904340731515955</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.9177659080439312</v>
+        <v>0.9177659080439309</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9122330902860203</v>
+        <v>0.9122330902860201</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8761635022332623</v>
+        <v>0.8754555084153645</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8996835672000217</v>
+        <v>0.9007548405282593</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8945407503302566</v>
+        <v>0.8960323695668005</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9268958740284654</v>
+        <v>0.9268236113621465</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9330289533919505</v>
+        <v>0.9323270947734126</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9248396931284784</v>
+        <v>0.9243191873950198</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.9150175137291213</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9217095789960041</v>
+        <v>0.921709578996004</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.9183470410706169</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8993401047948081</v>
+        <v>0.8991494947686928</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9099611346997621</v>
+        <v>0.9101704746054069</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9084821155874881</v>
+        <v>0.9088957286975301</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9293739184006105</v>
+        <v>0.9283077944815603</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9315638284905061</v>
+        <v>0.9323221473961772</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9280356573548987</v>
+        <v>0.927020740139249</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.9397148086146976</v>
+        <v>0.9397148086146974</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.9308399739568465</v>
+        <v>0.9308399739568464</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9352013330490458</v>
+        <v>0.9352013330490461</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9161615461279887</v>
+        <v>0.9183856153758532</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9101775329399091</v>
+        <v>0.9097061550760143</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9216251133515938</v>
+        <v>0.9216898052048937</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9562696717880051</v>
+        <v>0.9562679540507135</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9451603641711717</v>
+        <v>0.9472218488833951</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9470348750340426</v>
+        <v>0.9471939977930185</v>
       </c>
     </row>
     <row r="13">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.9187332438593604</v>
+        <v>0.9187332438593606</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9228336113961247</v>
+        <v>0.9228336113961244</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.9208467278113474</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9073295766380896</v>
+        <v>0.9075571206623365</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9146956716839362</v>
+        <v>0.9147937890685602</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9142968038308256</v>
+        <v>0.9140613827081338</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9289142216581866</v>
+        <v>0.9297976897140485</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9303080866514523</v>
+        <v>0.9312877292412548</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9275843461893009</v>
+        <v>0.927851659742827</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>416840</v>
+        <v>416503</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>610568</v>
+        <v>611295</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1032662</v>
+        <v>1034384</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>440976</v>
+        <v>440942</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>633198</v>
+        <v>632722</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1067640</v>
+        <v>1067039</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1865934</v>
+        <v>1865538</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1869435</v>
+        <v>1869865</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3751298</v>
+        <v>3753006</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1928247</v>
+        <v>1926035</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1913816</v>
+        <v>1915374</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>3832038</v>
+        <v>3827848</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>635617</v>
+        <v>637160</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>653490</v>
+        <v>653152</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1301117</v>
+        <v>1301208</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>663444</v>
+        <v>663442</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>678607</v>
+        <v>680087</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1336990</v>
+        <v>1337214</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2943667</v>
+        <v>2944406</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3156653</v>
+        <v>3156992</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6121547</v>
+        <v>6119971</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>3013695</v>
+        <v>3016561</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>3210532</v>
+        <v>3213913</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>6210512</v>
+        <v>6212302</v>
       </c>
     </row>
     <row r="20">
